--- a/data/light_pole_metadata.xlsx
+++ b/data/light_pole_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Downloads\prj_lauraramirez_sedimentplumes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EB93BA-EE06-4619-A021-AF0016AB5FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B2CE74-FD81-4380-BE56-5C466F13E12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42600" yWindow="-29220" windowWidth="18240" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
+    <workbookView xWindow="9165" yWindow="-28920" windowWidth="16440" windowHeight="28320" xr2:uid="{F6D07701-FE73-4411-AC41-CDBC8BE6C333}"/>
   </bookViews>
   <sheets>
     <sheet name="ltloggerdatacapturesummary_l_ce" sheetId="1" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D347" sqref="D347"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1563,20 +1563,20 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ref="E11" si="1">D11&amp;"_" &amp; B11 &amp; "_" &amp; C11</f>
-        <v>x_1_2</v>
+        <v>x_1_3</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -2148,20 +2148,20 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="3"/>
-        <v>x_2_2</v>
+        <v>x_2_3</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
